--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -83,9 +83,6 @@
     <t>Más de 500 TB/mes</t>
   </si>
   <si>
-    <t>0,021 USD por GB</t>
-  </si>
-  <si>
     <t>Total capacidad necesaria</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Precio mensual (€)</t>
+  </si>
+  <si>
+    <t>0,024 USD por GB</t>
   </si>
 </sst>
 </file>
@@ -263,9 +263,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -284,6 +281,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +605,10 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="22">
+      <c r="F2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="21">
         <v>1024</v>
       </c>
     </row>
@@ -699,85 +699,85 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
         <f>B8*B10*B11</f>
         <v>76761900000</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
         <f>ROUNDUP(B12/$G$2,0)</f>
         <v>74962793</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <f t="shared" ref="B14:B16" si="0">ROUNDUP(B13/$G$2,0)</f>
         <v>73206</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="19">
+        <v>24</v>
+      </c>
+      <c r="D15" s="18">
         <f>B15*C19</f>
-        <v>1.6559999999999999</v>
+        <v>1.728</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="20">
+        <v>25</v>
+      </c>
+      <c r="D16" s="19">
         <f>D15/1.13</f>
-        <v>1.465486725663717</v>
+        <v>1.5292035398230091</v>
       </c>
       <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="C19">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
